--- a/用户名密码单位名称许可证号维护.xlsx
+++ b/用户名密码单位名称许可证号维护.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5772B4DA-2715-4BB7-A7E1-D7BB2AE2B607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92C1B85-C78A-48B9-A8C2-65888006167B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="830" yWindow="-110" windowWidth="18480" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一木山楂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空港酒店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>益鑫手抓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新林顿利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>330017100000002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贵宾厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>970019010000004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,6 +257,30 @@
   </si>
   <si>
     <t>房车营地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空港酒店-销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空港酒店-餐饮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新林顿利-餐饮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵宾厅-销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一木山楂-销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一木山楂-餐饮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -693,7 +701,7 @@
     </row>
     <row r="4" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -701,7 +709,7 @@
     </row>
     <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
@@ -709,10 +717,10 @@
     </row>
     <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -725,66 +733,66 @@
     </row>
     <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -792,116 +800,116 @@
         <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>57</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>55</v>
+    <row r="23" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>39</v>
@@ -909,10 +917,26 @@
     </row>
     <row r="31" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
